--- a/F_dataset/DUD-E/MP2K1/MP2K1_prepare/MP2K1_total.xlsx
+++ b/F_dataset/DUD-E/MP2K1/MP2K1_prepare/MP2K1_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T264"/>
+  <dimension ref="A1:T229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13759,2946 +13759,6 @@
       <c r="S229" t="inlineStr"/>
       <c r="T229" t="inlineStr"/>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>CHEMBL3747066</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>1</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>CCS(=O)(=O)Nc1cccc(Oc2cc(F)c(F)c(Nc3ccc(I)cc3F)c2C(N)=O)c1</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>CCS(=O)(=O)Nc1cccc(Oc2cc(F)c(F)c(Nc3ccc(I)cc3F)c2C(N)=O)c1</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G230" t="n">
-        <v>591.35</v>
-      </c>
-      <c r="H230" t="n">
-        <v>3</v>
-      </c>
-      <c r="I230" t="n">
-        <v>5</v>
-      </c>
-      <c r="J230" t="n">
-        <v>8</v>
-      </c>
-      <c r="K230" t="n">
-        <v>3</v>
-      </c>
-      <c r="L230" t="n">
-        <v>3</v>
-      </c>
-      <c r="M230" t="n">
-        <v>110.52</v>
-      </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P230" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q230" t="n">
-        <v>12</v>
-      </c>
-      <c r="R230" t="inlineStr">
-        <is>
-          <t>CHEMBL3750088</t>
-        </is>
-      </c>
-      <c r="S230" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 (unknown origin) using biotinylated ERK1 as substrate incubated for 2 hrs by fluorescence analysis</t>
-        </is>
-      </c>
-      <c r="T230" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>CHEMBL37871</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>1</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(Cc2ccccc2)c1</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(Cc2ccccc2)c1</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G231" t="n">
-        <v>357.48</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>4</v>
-      </c>
-      <c r="J231" t="n">
-        <v>5</v>
-      </c>
-      <c r="K231" t="n">
-        <v>3</v>
-      </c>
-      <c r="L231" t="n">
-        <v>3</v>
-      </c>
-      <c r="M231" t="n">
-        <v>75.83</v>
-      </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q231" t="n">
-        <v>40</v>
-      </c>
-      <c r="R231" t="inlineStr">
-        <is>
-          <t>CHEMBL729500</t>
-        </is>
-      </c>
-      <c r="S231" t="inlineStr">
-        <is>
-          <t>Inhibitory potency against mitogen activated protein kinase kinase 1</t>
-        </is>
-      </c>
-      <c r="T231" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>CHEMBL3753341</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>1</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2cc(C3CC3)on2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2cc(C3CC3)on2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
-        <v>284.32</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>6</v>
-      </c>
-      <c r="J232" t="n">
-        <v>3</v>
-      </c>
-      <c r="K232" t="n">
-        <v>4</v>
-      </c>
-      <c r="L232" t="n">
-        <v>3</v>
-      </c>
-      <c r="M232" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O232" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P232" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q232" t="n">
-        <v>142</v>
-      </c>
-      <c r="R232" t="inlineStr">
-        <is>
-          <t>CHEMBL3757137</t>
-        </is>
-      </c>
-      <c r="S232" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human MEK1 by radiometric assay in presence of [gamma-33P]-ATP</t>
-        </is>
-      </c>
-      <c r="T232" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>CHEMBL213168</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>1</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(C(F)(F)F)cc1Cl</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(C(F)(F)F)cc1Cl</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G233" t="n">
-        <v>394.81</v>
-      </c>
-      <c r="H233" t="n">
-        <v>4</v>
-      </c>
-      <c r="I233" t="n">
-        <v>5</v>
-      </c>
-      <c r="J233" t="n">
-        <v>5</v>
-      </c>
-      <c r="K233" t="n">
-        <v>2</v>
-      </c>
-      <c r="L233" t="n">
-        <v>2</v>
-      </c>
-      <c r="M233" t="n">
-        <v>103.76</v>
-      </c>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P233" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q233" t="n">
-        <v>86</v>
-      </c>
-      <c r="R233" t="inlineStr">
-        <is>
-          <t>CHEMBL867341</t>
-        </is>
-      </c>
-      <c r="S233" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1</t>
-        </is>
-      </c>
-      <c r="T233" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>CHEMBL3400291</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>1</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Cc1c(Cc2cccc(N(C)S(=O)(=O)CCCNCCCCCC(=O)N3CCN(c4nc(N5CCOCC5)nc(-n5c(C(F)F)nc6ccccc65)n4)CC3)c2)c(=O)oc2cc(OC(=O)N(C)C)ccc12</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Cc1c(Cc2cccc(N(C)S(=O)(=O)CCCNCCCCCC(=O)N3CCN(c4nc(N5CCOCC5)nc(-n5c(C(F)F)nc6ccccc65)n4)CC3)c2)c(=O)oc2cc(OC(=O)N(C)C)ccc12</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G234" t="n">
-        <v>1000.14</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>15</v>
-      </c>
-      <c r="J234" t="n">
-        <v>19</v>
-      </c>
-      <c r="K234" t="n">
-        <v>8</v>
-      </c>
-      <c r="L234" t="n">
-        <v>6</v>
-      </c>
-      <c r="M234" t="n">
-        <v>201.67</v>
-      </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P234" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q234" t="n">
-        <v>473</v>
-      </c>
-      <c r="R234" t="inlineStr">
-        <is>
-          <t>CHEMBL3406097</t>
-        </is>
-      </c>
-      <c r="S234" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T234" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>CHEMBL1762110</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>1</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>CC(=O)NC[C@H]1CC[C@H](c2nc(-c3cc4ccccc4[nH]3)c3c(N)nccn32)CC1</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>CC(=O)NC[C@H]1CC[C@H](c2nc(-c3cc4ccccc4[nH]3)c3c(N)nccn32)CC1</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G235" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="H235" t="n">
-        <v>3</v>
-      </c>
-      <c r="I235" t="n">
-        <v>4</v>
-      </c>
-      <c r="J235" t="n">
-        <v>4</v>
-      </c>
-      <c r="K235" t="n">
-        <v>5</v>
-      </c>
-      <c r="L235" t="n">
-        <v>4</v>
-      </c>
-      <c r="M235" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O235" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P235" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q235" t="n">
-        <v>960</v>
-      </c>
-      <c r="R235" t="inlineStr">
-        <is>
-          <t>CHEMBL1763004</t>
-        </is>
-      </c>
-      <c r="S235" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1</t>
-        </is>
-      </c>
-      <c r="T235" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>CHEMBL203414</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>1</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>CCOC(=O)c1cn2ncc(C#N)c(Nc3ccc(Oc4ccc(Cl)cc4)cc3)c2c1C</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>CCOC(=O)c1cn2ncc(C#N)c(Nc3ccc(Oc4ccc(Cl)cc4)cc3)c2c1C</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G236" t="n">
-        <v>446.89</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>6</v>
-      </c>
-      <c r="J236" t="n">
-        <v>6</v>
-      </c>
-      <c r="K236" t="n">
-        <v>4</v>
-      </c>
-      <c r="L236" t="n">
-        <v>4</v>
-      </c>
-      <c r="M236" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O236" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P236" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q236" t="n">
-        <v>642</v>
-      </c>
-      <c r="R236" t="inlineStr">
-        <is>
-          <t>CHEMBL861916</t>
-        </is>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>Inhibitory activity against MEK</t>
-        </is>
-      </c>
-      <c r="T236" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>CHEMBL2006765</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>1</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>CCCNC(=O)c1ccc(Nc2nc(NCC(F)(F)F)c3cc[nH]c3n2)cc1</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>CCCNC(=O)c1ccc(Nc2nc(NCC(F)(F)F)c3cc[nH]c3n2)cc1</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G237" t="n">
-        <v>392.39</v>
-      </c>
-      <c r="H237" t="n">
-        <v>4</v>
-      </c>
-      <c r="I237" t="n">
-        <v>5</v>
-      </c>
-      <c r="J237" t="n">
-        <v>7</v>
-      </c>
-      <c r="K237" t="n">
-        <v>3</v>
-      </c>
-      <c r="L237" t="n">
-        <v>3</v>
-      </c>
-      <c r="M237" t="n">
-        <v>94.73</v>
-      </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P237" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q237" t="n">
-        <v>139</v>
-      </c>
-      <c r="R237" t="inlineStr">
-        <is>
-          <t>CHEMBL4007726</t>
-        </is>
-      </c>
-      <c r="S237" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 (unknown origin) after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T237" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>CHEMBL1908397</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>1</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G238" t="n">
-        <v>332.41</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>3</v>
-      </c>
-      <c r="J238" t="n">
-        <v>3</v>
-      </c>
-      <c r="K238" t="n">
-        <v>4</v>
-      </c>
-      <c r="L238" t="n">
-        <v>3</v>
-      </c>
-      <c r="M238" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O238" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P238" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q238" t="n">
-        <v>530</v>
-      </c>
-      <c r="R238" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S238" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T238" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>CHEMBL1908395</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>1</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>CN(C)CC(=O)N1CCC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)CC1</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>CN(C)CC(=O)N1CCC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)CC1</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G239" t="n">
-        <v>460.58</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>5</v>
-      </c>
-      <c r="J239" t="n">
-        <v>6</v>
-      </c>
-      <c r="K239" t="n">
-        <v>4</v>
-      </c>
-      <c r="L239" t="n">
-        <v>2</v>
-      </c>
-      <c r="M239" t="n">
-        <v>105.12</v>
-      </c>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O239" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P239" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q239" t="n">
-        <v>200</v>
-      </c>
-      <c r="R239" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S239" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T239" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>CHEMBL1230609</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>1</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>COc1cc2c(Oc3ccc(NC(=O)C4(C(=O)Nc5ccc(F)cc5)CC4)cc3F)ccnc2cc1OCCCN1CCOCC1</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>COc1cc2c(Oc3ccc(NC(=O)C4(C(=O)Nc5ccc(F)cc5)CC4)cc3F)ccnc2cc1OCCCN1CCOCC1</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G240" t="n">
-        <v>632.66</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>8</v>
-      </c>
-      <c r="J240" t="n">
-        <v>12</v>
-      </c>
-      <c r="K240" t="n">
-        <v>6</v>
-      </c>
-      <c r="L240" t="n">
-        <v>4</v>
-      </c>
-      <c r="M240" t="n">
-        <v>111.25</v>
-      </c>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P240" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q240" t="n">
-        <v>12</v>
-      </c>
-      <c r="R240" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S240" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T240" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>CHEMBL502835</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>1</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>COC(=O)c1ccc2c(c1)NC(=O)/C2=C(\Nc1ccc(N(C)C(=O)CN2CCN(C)CC2)cc1)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>COC(=O)c1ccc2c(c1)NC(=O)/C2=C(\Nc1ccc(N(C)C(=O)CN2CCN(C)CC2)cc1)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G241" t="n">
-        <v>539.64</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>7</v>
-      </c>
-      <c r="J241" t="n">
-        <v>7</v>
-      </c>
-      <c r="K241" t="n">
-        <v>5</v>
-      </c>
-      <c r="L241" t="n">
-        <v>3</v>
-      </c>
-      <c r="M241" t="n">
-        <v>94.22</v>
-      </c>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P241" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q241" t="n">
-        <v>10</v>
-      </c>
-      <c r="R241" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S241" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T241" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>CHEMBL1421</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>1</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Cc1nc(Nc2ncc(C(=O)Nc3c(C)cccc3Cl)s2)cc(N2CCN(CCO)CC2)n1</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Cc1nc(Nc2ncc(C(=O)Nc3c(C)cccc3Cl)s2)cc(N2CCN(CCO)CC2)n1</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G242" t="n">
-        <v>488.02</v>
-      </c>
-      <c r="H242" t="n">
-        <v>3</v>
-      </c>
-      <c r="I242" t="n">
-        <v>8</v>
-      </c>
-      <c r="J242" t="n">
-        <v>7</v>
-      </c>
-      <c r="K242" t="n">
-        <v>4</v>
-      </c>
-      <c r="L242" t="n">
-        <v>3</v>
-      </c>
-      <c r="M242" t="n">
-        <v>106.51</v>
-      </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P242" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q242" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R242" t="inlineStr">
-        <is>
-          <t>CHEMBL1061906</t>
-        </is>
-      </c>
-      <c r="S242" t="inlineStr">
-        <is>
-          <t>Binding constant for full-length MEK1</t>
-        </is>
-      </c>
-      <c r="T242" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>CHEMBL603469</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>1</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G243" t="n">
-        <v>439.47</v>
-      </c>
-      <c r="H243" t="n">
-        <v>3</v>
-      </c>
-      <c r="I243" t="n">
-        <v>4</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1</v>
-      </c>
-      <c r="K243" t="n">
-        <v>8</v>
-      </c>
-      <c r="L243" t="n">
-        <v>5</v>
-      </c>
-      <c r="M243" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q243" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R243" t="inlineStr">
-        <is>
-          <t>CHEMBL1244505</t>
-        </is>
-      </c>
-      <c r="S243" t="inlineStr">
-        <is>
-          <t>Binding affinity to MEK1</t>
-        </is>
-      </c>
-      <c r="T243" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>CHEMBL517956</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>0</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Cc1ccc(O)cc1CC[C@@H]1[C@H](O)CC[C@]2(C)[C@@H]([C@H](C)CCCC(C)C)CC[C@@H]12</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Cc1ccc(O)cc1CC[C@H]1[C@@H]2CC[C@H]([C@H](C)CCCC(C)C)[C@@]2(C)CC[C@H]1O</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G244" t="n">
-        <v>400.65</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>2</v>
-      </c>
-      <c r="J244" t="n">
-        <v>8</v>
-      </c>
-      <c r="K244" t="n">
-        <v>3</v>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="n">
-        <v>40.46</v>
-      </c>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O244" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P244" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q244" t="n">
-        <v>48900</v>
-      </c>
-      <c r="R244" t="inlineStr">
-        <is>
-          <t>CHEMBL1926226</t>
-        </is>
-      </c>
-      <c r="S244" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type human MEK1</t>
-        </is>
-      </c>
-      <c r="T244" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>CHEMBL368896</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>0</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Cn1c(-c2ccccc2)nc2c(-c3ccc(F)cc3)ncnc21</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Cn1c(-c2ccccc2)nc2c(-c3ccc(F)cc3)ncnc21</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G245" t="n">
-        <v>304.33</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>3</v>
-      </c>
-      <c r="J245" t="n">
-        <v>2</v>
-      </c>
-      <c r="K245" t="n">
-        <v>4</v>
-      </c>
-      <c r="L245" t="n">
-        <v>4</v>
-      </c>
-      <c r="M245" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O245" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P245" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q245" t="n">
-        <v>5</v>
-      </c>
-      <c r="R245" t="inlineStr">
-        <is>
-          <t>CHEMBL830657</t>
-        </is>
-      </c>
-      <c r="S245" t="inlineStr">
-        <is>
-          <t>Inhibition of human Mitogen activated protein kinase kinase 1 (MEK1) at 30 uM</t>
-        </is>
-      </c>
-      <c r="T245" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>CHEMBL407373</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>0</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G246" t="n">
-        <v>298.32</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>3</v>
-      </c>
-      <c r="J246" t="n">
-        <v>4</v>
-      </c>
-      <c r="K246" t="n">
-        <v>3</v>
-      </c>
-      <c r="L246" t="n">
-        <v>3</v>
-      </c>
-      <c r="M246" t="n">
-        <v>70.67</v>
-      </c>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O246" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P246" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q246" t="n">
-        <v>7</v>
-      </c>
-      <c r="R246" t="inlineStr">
-        <is>
-          <t>CHEMBL734035</t>
-        </is>
-      </c>
-      <c r="S246" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 in presence of 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T246" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>CHEMBL4559825</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>0</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)Nc4cc(C(F)(F)F)cc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)Nc4cc(C(F)(F)F)cc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G247" t="n">
-        <v>631.96</v>
-      </c>
-      <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>4</v>
-      </c>
-      <c r="J247" t="n">
-        <v>6</v>
-      </c>
-      <c r="K247" t="n">
-        <v>5</v>
-      </c>
-      <c r="L247" t="n">
-        <v>5</v>
-      </c>
-      <c r="M247" t="n">
-        <v>81.06999999999999</v>
-      </c>
-      <c r="N247" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O247" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P247" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q247" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="R247" t="inlineStr">
-        <is>
-          <t>CHEMBL4313428</t>
-        </is>
-      </c>
-      <c r="S247" t="inlineStr">
-        <is>
-          <t>Inhibition of human MEK1 at 10 uM using ERK2 as substrate by [gamma-33P]-ATP assay relative to control</t>
-        </is>
-      </c>
-      <c r="T247" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>0</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G248" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>9</v>
-      </c>
-      <c r="J248" t="n">
-        <v>2</v>
-      </c>
-      <c r="K248" t="n">
-        <v>5</v>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O248" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P248" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q248" t="n">
-        <v>0</v>
-      </c>
-      <c r="R248" t="inlineStr">
-        <is>
-          <t>CHEMBL1019622</t>
-        </is>
-      </c>
-      <c r="S248" t="inlineStr">
-        <is>
-          <t>Inhibition of MAP2K1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T248" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>CHEMBL388088</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>0</v>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>CCOC(=O)Cn1c(=O)sn(C)c1=O</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>CCOC(=O)Cn1c(=O)sn(C)c1=O</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G249" t="n">
-        <v>218.23</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>4</v>
-      </c>
-      <c r="J249" t="n">
-        <v>3</v>
-      </c>
-      <c r="K249" t="n">
-        <v>1</v>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O249" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P249" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q249" t="n">
-        <v>19</v>
-      </c>
-      <c r="R249" t="inlineStr">
-        <is>
-          <t>CHEMBL920009</t>
-        </is>
-      </c>
-      <c r="S249" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1K at 10 uM</t>
-        </is>
-      </c>
-      <c r="T249" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>CHEMBL1235213</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>0</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>CCOc1ccc(Nc2c(C)c(N[C@H]3CCCNC3)nc3ccnn23)cc1</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>CCOc1ccc(Nc2c(C)c(N[C@H]3CCCNC3)nc3ccnn23)cc1</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G250" t="n">
-        <v>366.47</v>
-      </c>
-      <c r="H250" t="n">
-        <v>3</v>
-      </c>
-      <c r="I250" t="n">
-        <v>6</v>
-      </c>
-      <c r="J250" t="n">
-        <v>6</v>
-      </c>
-      <c r="K250" t="n">
-        <v>4</v>
-      </c>
-      <c r="L250" t="n">
-        <v>3</v>
-      </c>
-      <c r="M250" t="n">
-        <v>75.51000000000001</v>
-      </c>
-      <c r="N250" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O250" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P250" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q250" t="n">
-        <v>19</v>
-      </c>
-      <c r="R250" t="inlineStr">
-        <is>
-          <t>CHEMBL2166398</t>
-        </is>
-      </c>
-      <c r="S250" t="inlineStr">
-        <is>
-          <t>Inhibition of human MEK1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T250" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>CHEMBL119385</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>0</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>O=c1ncn2nc(Sc3ccc(F)cc3F)ccc2c1-c1c(Cl)cccc1Cl</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>O=c1ncn2nc(Sc3ccc(F)cc3F)ccc2c1-c1c(Cl)cccc1Cl</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G251" t="n">
-        <v>436.27</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>4</v>
-      </c>
-      <c r="J251" t="n">
-        <v>3</v>
-      </c>
-      <c r="K251" t="n">
-        <v>4</v>
-      </c>
-      <c r="L251" t="n">
-        <v>4</v>
-      </c>
-      <c r="M251" t="n">
-        <v>47.26</v>
-      </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O251" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P251" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q251" t="n">
-        <v>5</v>
-      </c>
-      <c r="R251" t="inlineStr">
-        <is>
-          <t>CHEMBL2027420</t>
-        </is>
-      </c>
-      <c r="S251" t="inlineStr">
-        <is>
-          <t>Inhibition of Mek1 at 2 uM</t>
-        </is>
-      </c>
-      <c r="T251" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>CHEMBL369622</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>0</v>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>c1ccc(C[n+]2c[nH]c3ncncc32)cc1</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>c1ccc(C[n+]2c[nH]c3ncncc32)cc1</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G252" t="n">
-        <v>211.25</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>2</v>
-      </c>
-      <c r="J252" t="n">
-        <v>2</v>
-      </c>
-      <c r="K252" t="n">
-        <v>3</v>
-      </c>
-      <c r="L252" t="n">
-        <v>3</v>
-      </c>
-      <c r="M252" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="N252" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O252" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P252" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q252" t="n">
-        <v>4</v>
-      </c>
-      <c r="R252" t="inlineStr">
-        <is>
-          <t>CHEMBL830657</t>
-        </is>
-      </c>
-      <c r="S252" t="inlineStr">
-        <is>
-          <t>Inhibition of human Mitogen activated protein kinase kinase 1 (MEK1) at 30 uM</t>
-        </is>
-      </c>
-      <c r="T252" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>CHEMBL553</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>0</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>C#Cc1cccc(Nc2ncnc3cc(OCCOC)c(OCCOC)cc23)c1</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>C#Cc1cccc(Nc2ncnc3cc(OCCOC)c(OCCOC)cc23)c1</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G253" t="n">
-        <v>393.44</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>7</v>
-      </c>
-      <c r="J253" t="n">
-        <v>10</v>
-      </c>
-      <c r="K253" t="n">
-        <v>3</v>
-      </c>
-      <c r="L253" t="n">
-        <v>3</v>
-      </c>
-      <c r="M253" t="n">
-        <v>74.73</v>
-      </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O253" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P253" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q253" t="n">
-        <v>7</v>
-      </c>
-      <c r="R253" t="inlineStr">
-        <is>
-          <t>CHEMBL3761586</t>
-        </is>
-      </c>
-      <c r="S253" t="inlineStr">
-        <is>
-          <t>Inhibition of MAP2K1 (unknown origin) at 500 nM</t>
-        </is>
-      </c>
-      <c r="T253" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>CHEMBL3359125</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>0</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)oc2cc(NCCOc3no[n+]([O-])c3S(=O)(=O)c3ccccc3)ccc12</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)oc2cc(NCCOc3no[n+]([O-])c3S(=O)(=O)c3ccccc3)ccc12</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G254" t="n">
-        <v>443.44</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>9</v>
-      </c>
-      <c r="J254" t="n">
-        <v>7</v>
-      </c>
-      <c r="K254" t="n">
-        <v>4</v>
-      </c>
-      <c r="L254" t="n">
-        <v>4</v>
-      </c>
-      <c r="M254" t="n">
-        <v>138.58</v>
-      </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O254" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P254" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q254" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="R254" t="inlineStr">
-        <is>
-          <t>CHEMBL3381908</t>
-        </is>
-      </c>
-      <c r="S254" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK-1 (unknown origin) at 5 uM after 120 mins by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T254" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>CHEMBL98178</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>0</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1ccc(S/C(N)=C(C#N)/C(C#N)=C(\N)Sc2ccc(NC(C)=O)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1ccc(S/C(N)=C(C#N)/C(C#N)=C(\N)Sc2ccc(NC(C)=O)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G255" t="n">
-        <v>464.58</v>
-      </c>
-      <c r="H255" t="n">
-        <v>4</v>
-      </c>
-      <c r="I255" t="n">
-        <v>8</v>
-      </c>
-      <c r="J255" t="n">
-        <v>7</v>
-      </c>
-      <c r="K255" t="n">
-        <v>2</v>
-      </c>
-      <c r="L255" t="n">
-        <v>2</v>
-      </c>
-      <c r="M255" t="n">
-        <v>157.82</v>
-      </c>
-      <c r="N255" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O255" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P255" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q255" t="n">
-        <v>0</v>
-      </c>
-      <c r="R255" t="inlineStr">
-        <is>
-          <t>CHEMBL711123</t>
-        </is>
-      </c>
-      <c r="S255" t="inlineStr">
-        <is>
-          <t>Non-competitive inhibition of the dual specificity kinase MEK at the concentration 10 uM</t>
-        </is>
-      </c>
-      <c r="T255" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>CHEMBL4460272</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>0</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>c1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cc(N2CCOCC2)n1</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>c1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cc(N2CCOCC2)n1</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G256" t="n">
-        <v>381.44</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>7</v>
-      </c>
-      <c r="J256" t="n">
-        <v>4</v>
-      </c>
-      <c r="K256" t="n">
-        <v>5</v>
-      </c>
-      <c r="L256" t="n">
-        <v>3</v>
-      </c>
-      <c r="M256" t="n">
-        <v>85.39</v>
-      </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O256" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P256" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q256" t="n">
-        <v>7</v>
-      </c>
-      <c r="R256" t="inlineStr">
-        <is>
-          <t>CHEMBL4331991</t>
-        </is>
-      </c>
-      <c r="S256" t="inlineStr">
-        <is>
-          <t>Inhibition of MKK1 (unknown origin) at 1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T256" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>CHEMBL1794059</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>0</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(N/C=C2\C(=O)Nc3ccccc32)c1</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(N/C=C2\C(=O)Nc3ccccc32)c1</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G257" t="n">
-        <v>315.35</v>
-      </c>
-      <c r="H257" t="n">
-        <v>3</v>
-      </c>
-      <c r="I257" t="n">
-        <v>4</v>
-      </c>
-      <c r="J257" t="n">
-        <v>3</v>
-      </c>
-      <c r="K257" t="n">
-        <v>3</v>
-      </c>
-      <c r="L257" t="n">
-        <v>2</v>
-      </c>
-      <c r="M257" t="n">
-        <v>101.29</v>
-      </c>
-      <c r="N257" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O257" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P257" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q257" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="R257" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S257" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T257" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>CHEMBL1909378</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>0</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(-c2nc(-c3ccccn3)c(-c3ccc4c(c3)OCO4)[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(-c2nc(-c3ccccn3)c(-c3ccc4c(c3)OCO4)[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G258" t="n">
-        <v>384.4</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>5</v>
-      </c>
-      <c r="J258" t="n">
-        <v>4</v>
-      </c>
-      <c r="K258" t="n">
-        <v>5</v>
-      </c>
-      <c r="L258" t="n">
-        <v>4</v>
-      </c>
-      <c r="M258" t="n">
-        <v>103.12</v>
-      </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O258" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P258" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q258" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="R258" t="inlineStr">
-        <is>
-          <t>CHEMBL1962206</t>
-        </is>
-      </c>
-      <c r="S258" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T258" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>CHEMBL191105</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>0</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>CN(C)CCCn1c(-c2nonc2N)nc2cnccc21</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>CN(C)CCCn1c(-c2nonc2N)nc2cnccc21</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G259" t="n">
-        <v>287.33</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>7</v>
-      </c>
-      <c r="J259" t="n">
-        <v>5</v>
-      </c>
-      <c r="K259" t="n">
-        <v>3</v>
-      </c>
-      <c r="L259" t="n">
-        <v>3</v>
-      </c>
-      <c r="M259" t="n">
-        <v>98.89</v>
-      </c>
-      <c r="N259" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O259" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P259" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q259" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="R259" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S259" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T259" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>CHEMBL220243</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>0</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>COC(=O)c1cncc(/C=C/c2c(C)cc(O)cc2C)c1</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>COC(=O)c1cncc(/C=C/c2c(C)cc(O)cc2C)c1</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G260" t="n">
-        <v>283.33</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>4</v>
-      </c>
-      <c r="J260" t="n">
-        <v>3</v>
-      </c>
-      <c r="K260" t="n">
-        <v>2</v>
-      </c>
-      <c r="L260" t="n">
-        <v>2</v>
-      </c>
-      <c r="M260" t="n">
-        <v>59.42</v>
-      </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O260" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P260" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q260" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="R260" t="inlineStr">
-        <is>
-          <t>CHEMBL1962206</t>
-        </is>
-      </c>
-      <c r="S260" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T260" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>CHEMBL261849</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>0</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>COc1ccc(COc2ccc(Cc3cnc(N)nc3N)cc2OC)cc1</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>COc1ccc(COc2ccc(Cc3cnc(N)nc3N)cc2OC)cc1</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G261" t="n">
-        <v>366.42</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>7</v>
-      </c>
-      <c r="J261" t="n">
-        <v>7</v>
-      </c>
-      <c r="K261" t="n">
-        <v>3</v>
-      </c>
-      <c r="L261" t="n">
-        <v>3</v>
-      </c>
-      <c r="M261" t="n">
-        <v>105.51</v>
-      </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O261" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P261" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q261" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R261" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S261" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T261" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>CHEMBL463931</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>0</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>COc1cc2c(cc1Nc1nc(Nc3ccsc3C(N)=O)c3cc[nH]c3n1)N(C(=O)CN(C)C)CCC2(C)C</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>COc1cc2c(cc1Nc1nc(Nc3ccsc3C(N)=O)c3cc[nH]c3n1)N(C(=O)CN(C)C)CCC2(C)C</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G262" t="n">
-        <v>548.67</v>
-      </c>
-      <c r="H262" t="n">
-        <v>4</v>
-      </c>
-      <c r="I262" t="n">
-        <v>8</v>
-      </c>
-      <c r="J262" t="n">
-        <v>8</v>
-      </c>
-      <c r="K262" t="n">
-        <v>5</v>
-      </c>
-      <c r="L262" t="n">
-        <v>4</v>
-      </c>
-      <c r="M262" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O262" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P262" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q262" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="R262" t="inlineStr">
-        <is>
-          <t>CHEMBL1962206</t>
-        </is>
-      </c>
-      <c r="S262" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T262" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>CHEMBL477978</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>0</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Cc1ccc(C(=O)NC2CCCCC2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Cc1ccc(C(=O)NC2CCCCC2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G263" t="n">
-        <v>390.53</v>
-      </c>
-      <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2</v>
-      </c>
-      <c r="J263" t="n">
-        <v>6</v>
-      </c>
-      <c r="K263" t="n">
-        <v>4</v>
-      </c>
-      <c r="L263" t="n">
-        <v>2</v>
-      </c>
-      <c r="M263" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P263" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q263" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="R263" t="inlineStr">
-        <is>
-          <t>CHEMBL1962206</t>
-        </is>
-      </c>
-      <c r="S263" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T263" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>CHEMBL513330</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>0</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Clc1ccc(CNc2nccc(-c3cnn4ncccc34)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Clc1ccc(CNc2nccc(-c3cnn4ncccc34)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G264" t="n">
-        <v>336.79</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>5</v>
-      </c>
-      <c r="J264" t="n">
-        <v>4</v>
-      </c>
-      <c r="K264" t="n">
-        <v>4</v>
-      </c>
-      <c r="L264" t="n">
-        <v>4</v>
-      </c>
-      <c r="M264" t="n">
-        <v>68</v>
-      </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O264" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P264" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q264" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R264" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S264" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T264" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
